--- a/tfg/students.xlsx
+++ b/tfg/students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula Madrid Alonso\OneDrive\Escritorio\GitHub\TFG\tfg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61e33f79c92a0135/Escritorio/GitHub/TFG/tfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D97EB-5F46-4E65-8414-AA7DC1402873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F27A9549-3ACF-4619-A61B-55EDB2001363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC94F0B8-D9ED-4D16-A5C0-ADB667D0965F}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,43 +54,43 @@
     <t>100386251@alumnos.uc3m.es</t>
   </si>
   <si>
+    <t>MADRID ALONSO</t>
+  </si>
+  <si>
+    <t>PAULA</t>
+  </si>
+  <si>
+    <t>GARCIA CANORA</t>
+  </si>
+  <si>
+    <t>MARTA</t>
+  </si>
+  <si>
+    <t>CARMEN</t>
+  </si>
+  <si>
+    <t>ARRANZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ ALONSO</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>DE LA RIVA ALONSO</t>
+  </si>
+  <si>
+    <t>BONILLA GOMEZ</t>
+  </si>
+  <si>
     <t>100406266@alumnos.uc3m.es</t>
   </si>
   <si>
-    <t>MADRID ALONSO</t>
-  </si>
-  <si>
-    <t>PAULA</t>
-  </si>
-  <si>
-    <t>GARCIA CANORA</t>
-  </si>
-  <si>
-    <t>MARTA</t>
-  </si>
-  <si>
-    <t>CARMEN</t>
-  </si>
-  <si>
-    <t>ARRANZ ALVAREZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ ALONSO</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>DE LA RIVA ALONSO</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>BONILLA GOMEZ</t>
+    <t>MARIA JULIA</t>
   </si>
 </sst>
 </file>
@@ -134,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +422,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,10 +452,10 @@
         <v>100406260</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -465,10 +466,10 @@
         <v>100406263</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -479,10 +480,10 @@
         <v>100406264</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -493,10 +494,10 @@
         <v>100406265</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -507,10 +508,10 @@
         <v>100386251</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -521,13 +522,13 @@
         <v>100406266</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
